--- a/testData/zigWheels.xlsx
+++ b/testData/zigWheels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2303480\eclipse-workspace\Zigwheels1\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36313E05-34AA-4F96-9699-E2AB0E374AB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66C4482F-3B06-49FB-ADAD-A5B34D480988}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{5F7CF746-E14B-42C7-AD37-A757844497F1}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{5F7CF746-E14B-42C7-AD37-A757844497F1}"/>
   </bookViews>
   <sheets>
     <sheet name="popularModels" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1980" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="35">
   <si>
     <t>Models</t>
   </si>
@@ -82,64 +82,64 @@
     <t>Mahindra XUV500</t>
   </si>
   <si>
+    <t>Honda CRF300L</t>
+  </si>
+  <si>
+    <t>Rs. 3.30 Lakh</t>
+  </si>
+  <si>
+    <t>Launch Date : Mar 2024</t>
+  </si>
+  <si>
+    <t>Honda Activa Electric</t>
+  </si>
+  <si>
+    <t>Rs. 1.10 Lakh</t>
+  </si>
+  <si>
+    <t>Honda Forza 350</t>
+  </si>
+  <si>
+    <t>Rs. 3.70 Lakh</t>
+  </si>
+  <si>
+    <t>Honda CB350 Cruiser</t>
+  </si>
+  <si>
+    <t>Rs. 2.30 Lakh</t>
+  </si>
+  <si>
+    <t>Honda Activa 7G</t>
+  </si>
+  <si>
+    <t>Rs. 79,000</t>
+  </si>
+  <si>
+    <t>Launch Date : Apr 2024</t>
+  </si>
+  <si>
+    <t>Honda PCX160</t>
+  </si>
+  <si>
+    <t>Rs. 1.20 Lakh</t>
+  </si>
+  <si>
+    <t>Launch Date : Jun 2024</t>
+  </si>
+  <si>
+    <t>Honda CBR150R</t>
+  </si>
+  <si>
+    <t>Rs. 1.70 Lakh</t>
+  </si>
+  <si>
+    <t>Launch Date : Unrevealed</t>
+  </si>
+  <si>
+    <t>Honda Rebel 300</t>
+  </si>
+  <si>
     <t>Couldn’t find your Google Account</t>
-  </si>
-  <si>
-    <t>Honda CRF300L</t>
-  </si>
-  <si>
-    <t>Rs. 3.30 Lakh</t>
-  </si>
-  <si>
-    <t>Launch Date : Mar 2024</t>
-  </si>
-  <si>
-    <t>Honda Activa Electric</t>
-  </si>
-  <si>
-    <t>Rs. 1.10 Lakh</t>
-  </si>
-  <si>
-    <t>Honda Forza 350</t>
-  </si>
-  <si>
-    <t>Rs. 3.70 Lakh</t>
-  </si>
-  <si>
-    <t>Honda CB350 Cruiser</t>
-  </si>
-  <si>
-    <t>Rs. 2.30 Lakh</t>
-  </si>
-  <si>
-    <t>Honda Activa 7G</t>
-  </si>
-  <si>
-    <t>Rs. 79,000</t>
-  </si>
-  <si>
-    <t>Launch Date : Apr 2024</t>
-  </si>
-  <si>
-    <t>Honda PCX160</t>
-  </si>
-  <si>
-    <t>Rs. 1.20 Lakh</t>
-  </si>
-  <si>
-    <t>Launch Date : Jun 2024</t>
-  </si>
-  <si>
-    <t>Honda CBR150R</t>
-  </si>
-  <si>
-    <t>Rs. 1.70 Lakh</t>
-  </si>
-  <si>
-    <t>Launch Date : Unrevealed</t>
-  </si>
-  <si>
-    <t>Honda Rebel 300</t>
   </si>
   <si>
     <t/>
@@ -519,7 +519,7 @@
   <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A10"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -587,8 +587,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4A9F14C-FDFE-457E-BF47-2EA77C20B340}">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -611,90 +611,118 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
         <v>15</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>16</v>
-      </c>
-      <c r="C2" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" t="s">
         <v>18</v>
       </c>
-      <c r="B3" t="s">
-        <v>19</v>
-      </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" t="s">
         <v>20</v>
       </c>
-      <c r="B4" t="s">
-        <v>21</v>
-      </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
         <v>22</v>
       </c>
-      <c r="B5" t="s">
-        <v>23</v>
-      </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" t="s">
         <v>24</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>25</v>
-      </c>
-      <c r="C6" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" t="s">
         <v>27</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>28</v>
-      </c>
-      <c r="C7" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" t="s">
         <v>30</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>31</v>
-      </c>
-      <c r="C8" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8D49E9C-E2DC-441F-9C6C-CBC93B2372FB}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="24.453125"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
         <v>33</v>
-      </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/testData/zigWheels.xlsx
+++ b/testData/zigWheels.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="827" uniqueCount="35">
   <si>
     <t>Models</t>
   </si>

--- a/testData/zigWheels.xlsx
+++ b/testData/zigWheels.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="827" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="967" uniqueCount="35">
   <si>
     <t>Models</t>
   </si>
